--- a/doc/fft_analyze/fft_analyze_v1.xlsx
+++ b/doc/fft_analyze/fft_analyze_v1.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mymedia\vivado\zsrc\doc\fft_analyze\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mymedia\vivado\bs_src\doc\fft_analyze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA59F54B-BA81-4D40-B4EE-DBDB3624CB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344C3B70-3501-44BD-8923-88DDC8233703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11480" yWindow="1710" windowWidth="34650" windowHeight="17510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="fft" sheetId="5" r:id="rId1"/>
-    <sheet name="option 1" sheetId="1" r:id="rId2"/>
-    <sheet name="option 2" sheetId="3" r:id="rId3"/>
-    <sheet name="option 3" sheetId="4" r:id="rId4"/>
+    <sheet name="fft_test" sheetId="6" r:id="rId1"/>
+    <sheet name="fft" sheetId="5" r:id="rId2"/>
+    <sheet name="option 1" sheetId="1" r:id="rId3"/>
+    <sheet name="option 2" sheetId="3" r:id="rId4"/>
+    <sheet name="option 3" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="128">
   <si>
     <t>Memory</t>
   </si>
@@ -508,6 +509,26 @@
   </si>
   <si>
     <t>RAM / SET</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>total Latency(us)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>26.2 Mb(Block RAM)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>57.7 Mb(1750 BRs)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mb</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>usec</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -557,7 +578,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -594,6 +615,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,7 +702,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -749,6 +776,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="8" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="메모" xfId="3" builtinId="10"/>
@@ -1031,23 +1086,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EFB1818-E676-4765-8959-7B570CB03BC7}">
-  <dimension ref="A1:M46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B7A98F-C875-4AAD-A5FB-CCE38E568D8F}">
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="22.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.0625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="23.5625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5625" style="1" customWidth="1"/>
-    <col min="7" max="13" width="23.5625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.58203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -1055,12 +1108,588 @@
         <v>19</v>
       </c>
       <c r="C1" s="3">
+        <v>4</v>
+      </c>
+      <c r="D1" s="34"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3">
+        <v>32768</v>
+      </c>
+      <c r="C2" s="3">
+        <v>32768</v>
+      </c>
+      <c r="D2" s="34"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3">
+        <v>250</v>
+      </c>
+      <c r="D3" s="34"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="34"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="34"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="34"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="3">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3">
+        <v>32</v>
+      </c>
+      <c r="D7" s="34"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3">
+        <v>16</v>
+      </c>
+      <c r="D8" s="34"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="34"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="34"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="3">
+        <f>C1*2</f>
+        <v>8</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="34"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="34"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3">
+        <v>32768</v>
+      </c>
+      <c r="D14" s="34"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3">
+        <v>32768</v>
+      </c>
+      <c r="D15" s="34"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="3">
+        <v>32</v>
+      </c>
+      <c r="C16" s="3">
+        <v>32</v>
+      </c>
+      <c r="D16" s="34"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="15">
+        <v>3528</v>
+      </c>
+      <c r="C17" s="3">
+        <v>72</v>
+      </c>
+      <c r="D17" s="34"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="3"/>
+      <c r="B18" s="15">
+        <v>3528</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" ref="C18" si="0">C17*($B$1/C1)</f>
+        <v>342</v>
+      </c>
+      <c r="D18" s="34"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="3">
+        <v>488</v>
+      </c>
+      <c r="D19" s="34"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" ref="C20" si="1">(C19*18000/1000000)</f>
+        <v>8.7840000000000007</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" ref="C21" si="2">C20+C11</f>
+        <v>16.783999999999999</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" ref="C22" si="3">C21*($B$1/C$1)</f>
+        <v>79.72399999999999</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="3"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="34"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="3">
+        <v>32768</v>
+      </c>
+      <c r="C24" s="3">
+        <v>32768</v>
+      </c>
+      <c r="D24" s="34"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3">
+        <v>131263</v>
+      </c>
+      <c r="D25" s="34"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="3">
+        <v>525.05200000000002</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="3"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="3">
+        <f t="shared" ref="C27" si="4">1/C3*C24</f>
+        <v>131.072</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="13">
+        <v>1000</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" ref="C28" si="5">C26+C27*3</f>
+        <v>918.26800000000003</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="34"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="34"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="34"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="3"/>
+      <c r="B32" s="13">
+        <v>57.7</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="34"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="3">
+        <v>19</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="3">
+        <f>IF(C$21*($A33/C$1)&gt;$B$32,(C$21)*($A33/C$1),"OK"&amp;(C$21)*($A33/C$1))</f>
+        <v>79.72399999999999</v>
+      </c>
+      <c r="D33" s="34"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" s="3">
+        <v>18</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="3">
+        <f>IF(C$21*($A34/C$1)&gt;$B$32,(C$21)*($A34/C$1),"OK"&amp;(C$21)*($A34/C$1))</f>
+        <v>75.527999999999992</v>
+      </c>
+      <c r="D34" s="34"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" s="3">
+        <v>17</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3">
+        <f>IF(C$21*($A35/C$1)&gt;$B$32,(C$21)*($A35/C$1),"OK"&amp;(C$21)*($A35/C$1))</f>
+        <v>71.331999999999994</v>
+      </c>
+      <c r="D35" s="34"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" s="3">
+        <v>16</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3">
+        <f>IF(C$21*($A36/C$1)&gt;$B$32,(C$21)*($A36/C$1),"OK"&amp;(C$21)*($A36/C$1))</f>
+        <v>67.135999999999996</v>
+      </c>
+      <c r="D36" s="34"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" s="3">
+        <v>15</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3">
+        <f>IF(C$21*($A37/C$1)&gt;$B$32,(C$21)*($A37/C$1),"OK"&amp;(C$21)*($A37/C$1))</f>
+        <v>62.94</v>
+      </c>
+      <c r="D37" s="34"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" s="3">
+        <v>14</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3">
+        <f>IF(C$21*($A38/C$1)&gt;$B$32,(C$21)*($A38/C$1),"OK"&amp;(C$21)*($A38/C$1))</f>
+        <v>58.744</v>
+      </c>
+      <c r="D38" s="34"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39" s="33">
+        <v>13</v>
+      </c>
+      <c r="B39" s="33"/>
+      <c r="C39" s="13" t="str">
+        <f>IF(C$21*($A39/C$1)&gt;$B$32,(C$21)*($A39/C$1),"OK"&amp;(C$21)*($A39/C$1))</f>
+        <v>OK54.548</v>
+      </c>
+      <c r="D39" s="34"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40" s="3">
+        <v>12</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3" t="str">
+        <f>IF(C$21*($A40/C$1)&gt;$B$32,(C$21)*($A40/C$1),"OK"&amp;(C$21)*($A40/C$1))</f>
+        <v>OK50.352</v>
+      </c>
+      <c r="D40" s="34"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41" s="3">
+        <v>11</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3" t="str">
+        <f>IF(C$21*($A41/C$1)&gt;$B$32,(C$21)*($A41/C$1),"OK"&amp;(C$21)*($A41/C$1))</f>
+        <v>OK46.156</v>
+      </c>
+      <c r="D41" s="34"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42" s="3">
+        <v>10</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="str">
+        <f>IF(C$21*($A42/C$1)&gt;$B$32,(C$21)*($A42/C$1),"OK"&amp;(C$21)*($A42/C$1))</f>
+        <v>OK41.96</v>
+      </c>
+      <c r="D42" s="34"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43" s="3">
+        <v>9</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3" t="str">
+        <f>IF(C$21*($A43/C$1)&gt;$B$32,(C$21)*($A43/C$1),"OK"&amp;(C$21)*($A43/C$1))</f>
+        <v>OK37.764</v>
+      </c>
+      <c r="D43" s="34"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44" s="3">
+        <v>8</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3" t="str">
+        <f>IF(C$21*($A44/C$1)&gt;$B$32,(C$21)*($A44/C$1),"OK"&amp;(C$21)*($A44/C$1))</f>
+        <v>OK33.568</v>
+      </c>
+      <c r="D44" s="34"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45" s="3">
+        <v>7</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3" t="str">
+        <f>IF(C$21*($A45/C$1)&gt;$B$32,(C$21)*($A45/C$1),"OK"&amp;(C$21)*($A45/C$1))</f>
+        <v>OK29.372</v>
+      </c>
+      <c r="D45" s="34"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46" s="3">
+        <v>6</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3" t="str">
+        <f>IF(C$21*($A46/C$1)&gt;$B$32,(C$21)*($A46/C$1),"OK"&amp;(C$21)*($A46/C$1))</f>
+        <v>OK25.176</v>
+      </c>
+      <c r="D46" s="34"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47" s="3">
+        <v>5</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3" t="str">
+        <f>IF(C$21*($A47/C$1)&gt;$B$32,(C$21)*($A47/C$1),"OK"&amp;(C$21)*($A47/C$1))</f>
+        <v>OK20.98</v>
+      </c>
+      <c r="D47" s="34"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A48" s="3">
+        <v>4</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3" t="str">
+        <f>IF(C$21*($A48/C$1)&gt;$B$32,(C$21)*($A48/C$1),"OK"&amp;(C$21)*($A48/C$1))</f>
+        <v>OK16.784</v>
+      </c>
+      <c r="D48" s="34"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49" s="3">
+        <v>3</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3" t="str">
+        <f>IF(C$21*($A49/C$1)&gt;$B$32,(C$21)*($A49/C$1),"OK"&amp;(C$21)*($A49/C$1))</f>
+        <v>OK12.588</v>
+      </c>
+      <c r="D49" s="34"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50" s="3">
+        <v>2</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3" t="str">
+        <f>IF(C$21*($A50/C$1)&gt;$B$32,(C$21)*($A50/C$1),"OK"&amp;(C$21)*($A50/C$1))</f>
+        <v>OK8.392</v>
+      </c>
+      <c r="D50" s="34"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51" s="3">
+        <v>1</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3" t="str">
+        <f>IF(C$21*($A51/C$1)&gt;$B$32,(C$21)*($A51/C$1),"OK"&amp;(C$21)*($A51/C$1))</f>
+        <v>OK4.196</v>
+      </c>
+      <c r="D51" s="34"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EFB1818-E676-4765-8959-7B570CB03BC7}">
+  <dimension ref="A1:M48"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="22.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.58203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.58203125" style="1" customWidth="1"/>
+    <col min="7" max="13" width="23.58203125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3">
         <v>1</v>
       </c>
       <c r="D1" s="3">
         <v>1</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="25">
         <v>4</v>
       </c>
       <c r="F1" s="3">
@@ -1088,7 +1717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1101,7 +1730,7 @@
       <c r="D2" s="3">
         <v>32768</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="25">
         <v>32768</v>
       </c>
       <c r="F2" s="3">
@@ -1129,7 +1758,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -1140,7 +1769,7 @@
       <c r="D3" s="3">
         <v>250</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="25">
         <v>250</v>
       </c>
       <c r="F3" s="3">
@@ -1168,7 +1797,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -1179,7 +1808,7 @@
       <c r="D4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="25" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -1207,7 +1836,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
@@ -1218,7 +1847,7 @@
       <c r="D5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="25" t="s">
         <v>38</v>
       </c>
       <c r="F5" s="11" t="s">
@@ -1246,7 +1875,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>42</v>
       </c>
@@ -1257,7 +1886,7 @@
       <c r="D6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="25" t="s">
         <v>44</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -1285,7 +1914,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>48</v>
       </c>
@@ -1298,7 +1927,7 @@
       <c r="D7" s="3">
         <v>32</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="25">
         <v>32</v>
       </c>
       <c r="F7" s="3">
@@ -1326,7 +1955,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>50</v>
       </c>
@@ -1337,7 +1966,7 @@
       <c r="D8" s="3">
         <v>16</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="25">
         <v>16</v>
       </c>
       <c r="F8" s="3">
@@ -1365,7 +1994,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>53</v>
       </c>
@@ -1376,7 +2005,7 @@
       <c r="D9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="25" t="s">
         <v>55</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -1404,12 +2033,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="E10" s="25"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1419,7 +2048,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>119</v>
       </c>
@@ -1434,7 +2063,7 @@
         <f t="shared" ref="D11:M11" si="0">D1</f>
         <v>1</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="25">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1471,12 +2100,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1486,7 +2115,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -1497,7 +2126,7 @@
       <c r="D13" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="26" t="s">
         <v>87</v>
       </c>
       <c r="F13" s="12" t="s">
@@ -1525,7 +2154,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>89</v>
       </c>
@@ -1536,7 +2165,7 @@
       <c r="D14" s="12">
         <v>32768</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="26">
         <v>32768</v>
       </c>
       <c r="F14" s="12">
@@ -1564,7 +2193,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>91</v>
       </c>
@@ -1575,7 +2204,7 @@
       <c r="D15" s="12">
         <v>32768</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="26">
         <v>32768</v>
       </c>
       <c r="F15" s="12">
@@ -1603,7 +2232,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>93</v>
       </c>
@@ -1616,7 +2245,7 @@
       <c r="D16" s="3">
         <v>32</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="25">
         <v>32</v>
       </c>
       <c r="F16" s="3">
@@ -1644,7 +2273,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>96</v>
       </c>
@@ -1657,7 +2286,7 @@
       <c r="D17" s="14">
         <v>18</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="27">
         <v>72</v>
       </c>
       <c r="F17" s="14">
@@ -1685,7 +2314,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="15">
         <v>3528</v>
@@ -1698,7 +2327,7 @@
         <f t="shared" ref="D18:M18" si="1">D17*($B$1/D1)</f>
         <v>342</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="27">
         <f t="shared" si="1"/>
         <v>342</v>
       </c>
@@ -1735,7 +2364,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>99</v>
       </c>
@@ -1748,7 +2377,7 @@
       <c r="D19" s="10">
         <v>140</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="27">
         <v>488</v>
       </c>
       <c r="F19" s="10">
@@ -1776,7 +2405,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>98</v>
       </c>
@@ -1791,7 +2420,7 @@
         <f t="shared" ref="D20:M20" si="2">(D19*18000/1000000)</f>
         <v>2.52</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="28">
         <f t="shared" si="2"/>
         <v>8.7840000000000007</v>
       </c>
@@ -1828,7 +2457,7 @@
         <v>17.568000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>121</v>
       </c>
@@ -1841,7 +2470,7 @@
         <f t="shared" ref="D21:M21" si="3">D20+D11</f>
         <v>3.52</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="28">
         <f t="shared" si="3"/>
         <v>12.784000000000001</v>
       </c>
@@ -1878,7 +2507,7 @@
         <v>25.568000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>122</v>
       </c>
@@ -1893,7 +2522,7 @@
         <f t="shared" ref="D22:M22" si="4">D21*($B$1/D$1)</f>
         <v>66.88</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="27">
         <f t="shared" si="4"/>
         <v>60.724000000000004</v>
       </c>
@@ -1930,12 +2559,12 @@
         <v>60.724000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="17"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
+      <c r="E23" s="27"/>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
@@ -1945,7 +2574,7 @@
       <c r="L23" s="19"/>
       <c r="M23" s="19"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>81</v>
       </c>
@@ -1958,7 +2587,7 @@
       <c r="D24" s="12">
         <v>32768</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="26">
         <v>32768</v>
       </c>
       <c r="F24" s="12">
@@ -1986,7 +2615,7 @@
         <v>32768</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>82</v>
       </c>
@@ -1997,7 +2626,7 @@
       <c r="D25" s="12">
         <v>65714</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="26">
         <v>131263</v>
       </c>
       <c r="F25" s="12">
@@ -2025,7 +2654,7 @@
         <v>131263</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>83</v>
       </c>
@@ -2038,7 +2667,7 @@
       <c r="D26" s="16">
         <v>525.05200000000002</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="29">
         <v>525.05200000000002</v>
       </c>
       <c r="F26" s="16">
@@ -2066,945 +2695,1041 @@
         <v>525.17999999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="B27" s="1">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A27" s="3"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="16">
+        <f>1/C3*C24</f>
+        <v>163.84</v>
+      </c>
+      <c r="D27" s="16">
+        <f t="shared" ref="D27:M27" si="5">1/D3*D24</f>
+        <v>131.072</v>
+      </c>
+      <c r="E27" s="29">
+        <f t="shared" si="5"/>
+        <v>131.072</v>
+      </c>
+      <c r="F27" s="16">
+        <f t="shared" si="5"/>
+        <v>131.072</v>
+      </c>
+      <c r="G27" s="16">
+        <f t="shared" si="5"/>
+        <v>131.072</v>
+      </c>
+      <c r="H27" s="16">
+        <f t="shared" si="5"/>
+        <v>131.072</v>
+      </c>
+      <c r="I27" s="16">
+        <f t="shared" si="5"/>
+        <v>131.072</v>
+      </c>
+      <c r="J27" s="16">
+        <f t="shared" si="5"/>
+        <v>131.072</v>
+      </c>
+      <c r="K27" s="16">
+        <f t="shared" si="5"/>
+        <v>131.072</v>
+      </c>
+      <c r="L27" s="16">
+        <f t="shared" si="5"/>
+        <v>131.072</v>
+      </c>
+      <c r="M27" s="16">
+        <f t="shared" si="5"/>
+        <v>131.072</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A28" s="3"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="16">
+        <f>C26+C27*3</f>
+        <v>820.08999999999992</v>
+      </c>
+      <c r="D28" s="16">
+        <f t="shared" ref="D28:M28" si="6">D26+D27*3</f>
+        <v>918.26800000000003</v>
+      </c>
+      <c r="E28" s="29">
+        <f t="shared" si="6"/>
+        <v>918.26800000000003</v>
+      </c>
+      <c r="F28" s="16">
+        <f t="shared" si="6"/>
+        <v>918.39599999999996</v>
+      </c>
+      <c r="G28" s="16">
+        <f t="shared" si="6"/>
+        <v>918.26800000000003</v>
+      </c>
+      <c r="H28" s="16">
+        <f t="shared" si="6"/>
+        <v>918.26800000000003</v>
+      </c>
+      <c r="I28" s="16">
+        <f t="shared" si="6"/>
+        <v>918.26800000000003</v>
+      </c>
+      <c r="J28" s="16">
+        <f t="shared" si="6"/>
+        <v>918.26800000000003</v>
+      </c>
+      <c r="K28" s="16">
+        <f t="shared" si="6"/>
+        <v>918.39599999999996</v>
+      </c>
+      <c r="L28" s="16">
+        <f t="shared" si="6"/>
+        <v>918.26800000000003</v>
+      </c>
+      <c r="M28" s="16">
+        <f t="shared" si="6"/>
+        <v>918.39599999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B29" s="1">
         <v>31.5</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A28" s="1">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
         <v>19</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C28" s="21">
-        <f>IF(C$21*($A28/C$1)&gt;$B$27,(C$21)*($A28/C$1),"OK"&amp;(C$21)*($A28/C$1))</f>
+      <c r="C30" s="21">
+        <f>IF(C$21*($A30/C$1)&gt;$B$29,(C$21)*($A30/C$1),"OK"&amp;(C$21)*($A30/C$1))</f>
         <v>65.17</v>
       </c>
-      <c r="D28" s="21">
-        <f>IF(D$21*($A28/D$1)&gt;$B$27,(D$21)*($A28/D$1),"OK"&amp;(D$21)*($A28/D$1))</f>
+      <c r="D30" s="21">
+        <f>IF(D$21*($A30/D$1)&gt;$B$29,(D$21)*($A30/D$1),"OK"&amp;(D$21)*($A30/D$1))</f>
         <v>66.88</v>
       </c>
-      <c r="E28" s="21">
-        <f t="shared" ref="E28:M43" si="5">IF(E$21*($A28/E$1)&gt;$B$27,(E$21)*($A28/E$1),"OK"&amp;(E$21)*($A28/E$1))</f>
+      <c r="E30" s="28">
+        <f t="shared" ref="E30:M45" si="7">IF(E$21*($A30/E$1)&gt;$B$29,(E$21)*($A30/E$1),"OK"&amp;(E$21)*($A30/E$1))</f>
         <v>60.724000000000004</v>
       </c>
-      <c r="F28" s="21">
-        <f t="shared" si="5"/>
+      <c r="F30" s="21">
+        <f t="shared" si="7"/>
         <v>62.775999999999996</v>
       </c>
-      <c r="G28" s="21">
-        <f t="shared" si="5"/>
+      <c r="G30" s="21">
+        <f t="shared" si="7"/>
         <v>60.313599999999994</v>
       </c>
-      <c r="H28" s="21">
-        <f t="shared" si="5"/>
+      <c r="H30" s="21">
+        <f t="shared" si="7"/>
         <v>60.04</v>
       </c>
-      <c r="I28" s="21">
-        <f t="shared" si="5"/>
+      <c r="I30" s="21">
+        <f t="shared" si="7"/>
         <v>59.844571428571435</v>
       </c>
-      <c r="J28" s="21">
-        <f t="shared" si="5"/>
+      <c r="J30" s="21">
+        <f t="shared" si="7"/>
         <v>79.876000000000005</v>
       </c>
-      <c r="K28" s="21">
-        <f t="shared" si="5"/>
+      <c r="K30" s="21">
+        <f t="shared" si="7"/>
         <v>79.876000000000005</v>
       </c>
-      <c r="L28" s="21">
-        <f t="shared" si="5"/>
+      <c r="L30" s="21">
+        <f t="shared" si="7"/>
         <v>62.775999999999996</v>
       </c>
-      <c r="M28" s="21">
-        <f t="shared" si="5"/>
+      <c r="M30" s="21">
+        <f t="shared" si="7"/>
         <v>60.724000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A29" s="1">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
         <v>18</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="21">
-        <f t="shared" ref="C29:M46" si="6">IF(C$21*($A29/C$1)&gt;$B$27,(C$21)*($A29/C$1),"OK"&amp;(C$21)*($A29/C$1))</f>
+      <c r="C31" s="21">
+        <f t="shared" ref="C31:M48" si="8">IF(C$21*($A31/C$1)&gt;$B$29,(C$21)*($A31/C$1),"OK"&amp;(C$21)*($A31/C$1))</f>
         <v>61.74</v>
       </c>
-      <c r="D29" s="21">
-        <f t="shared" si="6"/>
+      <c r="D31" s="21">
+        <f t="shared" si="8"/>
         <v>63.36</v>
       </c>
-      <c r="E29" s="21">
-        <f t="shared" si="5"/>
+      <c r="E31" s="28">
+        <f t="shared" si="7"/>
         <v>57.528000000000006</v>
       </c>
-      <c r="F29" s="21">
-        <f t="shared" si="5"/>
+      <c r="F31" s="21">
+        <f t="shared" si="7"/>
         <v>59.471999999999994</v>
       </c>
-      <c r="G29" s="21">
-        <f t="shared" si="5"/>
+      <c r="G31" s="21">
+        <f t="shared" si="7"/>
         <v>57.139200000000002</v>
       </c>
-      <c r="H29" s="21">
-        <f t="shared" si="5"/>
+      <c r="H31" s="21">
+        <f t="shared" si="7"/>
         <v>56.88</v>
       </c>
-      <c r="I29" s="21">
-        <f t="shared" si="5"/>
+      <c r="I31" s="21">
+        <f t="shared" si="7"/>
         <v>56.694857142857153</v>
       </c>
-      <c r="J29" s="21">
-        <f t="shared" si="5"/>
+      <c r="J31" s="21">
+        <f t="shared" si="7"/>
         <v>75.672000000000011</v>
       </c>
-      <c r="K29" s="21">
-        <f t="shared" si="5"/>
+      <c r="K31" s="21">
+        <f t="shared" si="7"/>
         <v>75.672000000000011</v>
       </c>
-      <c r="L29" s="21">
-        <f t="shared" si="5"/>
+      <c r="L31" s="21">
+        <f t="shared" si="7"/>
         <v>59.471999999999994</v>
       </c>
-      <c r="M29" s="21">
-        <f t="shared" si="5"/>
+      <c r="M31" s="21">
+        <f t="shared" si="7"/>
         <v>57.528000000000006</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A30" s="1">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
         <v>17</v>
       </c>
-      <c r="C30" s="21">
-        <f t="shared" si="6"/>
+      <c r="C32" s="21">
+        <f t="shared" si="8"/>
         <v>58.31</v>
       </c>
-      <c r="D30" s="21">
-        <f t="shared" si="6"/>
+      <c r="D32" s="21">
+        <f t="shared" si="8"/>
         <v>59.84</v>
       </c>
-      <c r="E30" s="21">
-        <f t="shared" si="5"/>
+      <c r="E32" s="28">
+        <f t="shared" si="7"/>
         <v>54.332000000000001</v>
       </c>
-      <c r="F30" s="21">
-        <f t="shared" si="5"/>
+      <c r="F32" s="21">
+        <f t="shared" si="7"/>
         <v>56.167999999999999</v>
       </c>
-      <c r="G30" s="21">
-        <f t="shared" si="5"/>
+      <c r="G32" s="21">
+        <f t="shared" si="7"/>
         <v>53.964799999999997</v>
       </c>
-      <c r="H30" s="21">
-        <f t="shared" si="5"/>
+      <c r="H32" s="21">
+        <f t="shared" si="7"/>
         <v>53.720000000000006</v>
       </c>
-      <c r="I30" s="21">
-        <f t="shared" si="5"/>
+      <c r="I32" s="21">
+        <f t="shared" si="7"/>
         <v>53.545142857142856</v>
       </c>
-      <c r="J30" s="21">
-        <f t="shared" si="5"/>
+      <c r="J32" s="21">
+        <f t="shared" si="7"/>
         <v>71.468000000000018</v>
       </c>
-      <c r="K30" s="21">
-        <f t="shared" si="5"/>
+      <c r="K32" s="21">
+        <f t="shared" si="7"/>
         <v>71.468000000000018</v>
       </c>
-      <c r="L30" s="21">
-        <f t="shared" si="5"/>
+      <c r="L32" s="21">
+        <f t="shared" si="7"/>
         <v>56.167999999999999</v>
       </c>
-      <c r="M30" s="21">
-        <f t="shared" si="5"/>
+      <c r="M32" s="21">
+        <f t="shared" si="7"/>
         <v>54.332000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A31" s="1">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
         <v>16</v>
       </c>
-      <c r="C31" s="21">
-        <f t="shared" si="6"/>
+      <c r="C33" s="21">
+        <f t="shared" si="8"/>
         <v>54.88</v>
       </c>
-      <c r="D31" s="21">
-        <f t="shared" si="6"/>
+      <c r="D33" s="21">
+        <f t="shared" si="8"/>
         <v>56.32</v>
       </c>
-      <c r="E31" s="21">
-        <f t="shared" si="5"/>
+      <c r="E33" s="28">
+        <f t="shared" si="7"/>
         <v>51.136000000000003</v>
       </c>
-      <c r="F31" s="21">
-        <f t="shared" si="5"/>
+      <c r="F33" s="21">
+        <f t="shared" si="7"/>
         <v>52.863999999999997</v>
       </c>
-      <c r="G31" s="21">
-        <f t="shared" si="5"/>
+      <c r="G33" s="21">
+        <f t="shared" si="7"/>
         <v>50.790400000000005</v>
       </c>
-      <c r="H31" s="21">
-        <f t="shared" si="5"/>
+      <c r="H33" s="21">
+        <f t="shared" si="7"/>
         <v>50.56</v>
       </c>
-      <c r="I31" s="21">
-        <f t="shared" si="5"/>
+      <c r="I33" s="21">
+        <f t="shared" si="7"/>
         <v>50.395428571428575</v>
       </c>
-      <c r="J31" s="21">
-        <f t="shared" si="5"/>
+      <c r="J33" s="21">
+        <f t="shared" si="7"/>
         <v>67.26400000000001</v>
       </c>
-      <c r="K31" s="21">
-        <f t="shared" si="5"/>
+      <c r="K33" s="21">
+        <f t="shared" si="7"/>
         <v>67.26400000000001</v>
       </c>
-      <c r="L31" s="21">
-        <f t="shared" si="5"/>
+      <c r="L33" s="21">
+        <f t="shared" si="7"/>
         <v>52.863999999999997</v>
       </c>
-      <c r="M31" s="21">
-        <f t="shared" si="5"/>
+      <c r="M33" s="21">
+        <f t="shared" si="7"/>
         <v>51.136000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A32" s="1">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
         <v>15</v>
       </c>
-      <c r="C32" s="21">
-        <f t="shared" si="6"/>
+      <c r="C34" s="21">
+        <f t="shared" si="8"/>
         <v>51.45</v>
       </c>
-      <c r="D32" s="21">
-        <f t="shared" si="6"/>
+      <c r="D34" s="21">
+        <f t="shared" si="8"/>
         <v>52.8</v>
       </c>
-      <c r="E32" s="21">
-        <f t="shared" si="5"/>
+      <c r="E34" s="28">
+        <f t="shared" si="7"/>
         <v>47.940000000000005</v>
       </c>
-      <c r="F32" s="21">
-        <f t="shared" si="5"/>
+      <c r="F34" s="21">
+        <f t="shared" si="7"/>
         <v>49.559999999999995</v>
       </c>
-      <c r="G32" s="21">
-        <f t="shared" si="5"/>
+      <c r="G34" s="21">
+        <f t="shared" si="7"/>
         <v>47.616</v>
       </c>
-      <c r="H32" s="21">
-        <f t="shared" si="5"/>
+      <c r="H34" s="21">
+        <f t="shared" si="7"/>
         <v>47.400000000000006</v>
       </c>
-      <c r="I32" s="21">
-        <f t="shared" si="5"/>
+      <c r="I34" s="21">
+        <f t="shared" si="7"/>
         <v>47.245714285714286</v>
       </c>
-      <c r="J32" s="21">
-        <f t="shared" si="5"/>
+      <c r="J34" s="21">
+        <f t="shared" si="7"/>
         <v>63.060000000000009</v>
       </c>
-      <c r="K32" s="21">
-        <f t="shared" si="5"/>
+      <c r="K34" s="21">
+        <f t="shared" si="7"/>
         <v>63.060000000000009</v>
       </c>
-      <c r="L32" s="21">
-        <f t="shared" si="5"/>
+      <c r="L34" s="21">
+        <f t="shared" si="7"/>
         <v>49.559999999999995</v>
       </c>
-      <c r="M32" s="21">
-        <f t="shared" si="5"/>
+      <c r="M34" s="21">
+        <f t="shared" si="7"/>
         <v>47.940000000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A33" s="1">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A35" s="1">
         <v>14</v>
       </c>
-      <c r="C33" s="21">
-        <f t="shared" si="6"/>
+      <c r="C35" s="21">
+        <f t="shared" si="8"/>
         <v>48.02</v>
       </c>
-      <c r="D33" s="21">
-        <f t="shared" si="6"/>
+      <c r="D35" s="21">
+        <f t="shared" si="8"/>
         <v>49.28</v>
       </c>
-      <c r="E33" s="21">
-        <f t="shared" si="5"/>
+      <c r="E35" s="28">
+        <f t="shared" si="7"/>
         <v>44.744</v>
       </c>
-      <c r="F33" s="21">
-        <f t="shared" si="5"/>
+      <c r="F35" s="21">
+        <f t="shared" si="7"/>
         <v>46.256</v>
       </c>
-      <c r="G33" s="21">
-        <f t="shared" si="5"/>
+      <c r="G35" s="21">
+        <f t="shared" si="7"/>
         <v>44.441599999999994</v>
       </c>
-      <c r="H33" s="21">
-        <f t="shared" si="5"/>
+      <c r="H35" s="21">
+        <f t="shared" si="7"/>
         <v>44.24</v>
       </c>
-      <c r="I33" s="21">
-        <f t="shared" si="5"/>
+      <c r="I35" s="21">
+        <f t="shared" si="7"/>
         <v>44.096000000000004</v>
       </c>
-      <c r="J33" s="21">
-        <f t="shared" si="5"/>
+      <c r="J35" s="21">
+        <f t="shared" si="7"/>
         <v>58.856000000000009</v>
       </c>
-      <c r="K33" s="21">
-        <f t="shared" si="5"/>
+      <c r="K35" s="21">
+        <f t="shared" si="7"/>
         <v>58.856000000000009</v>
       </c>
-      <c r="L33" s="21">
-        <f t="shared" si="5"/>
+      <c r="L35" s="21">
+        <f t="shared" si="7"/>
         <v>46.256</v>
       </c>
-      <c r="M33" s="21">
-        <f t="shared" si="5"/>
+      <c r="M35" s="21">
+        <f t="shared" si="7"/>
         <v>44.744</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A34" s="1">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A36" s="1">
         <v>13</v>
       </c>
-      <c r="C34" s="21">
-        <f t="shared" si="6"/>
+      <c r="C36" s="21">
+        <f t="shared" si="8"/>
         <v>44.59</v>
       </c>
-      <c r="D34" s="21">
-        <f t="shared" si="6"/>
+      <c r="D36" s="21">
+        <f t="shared" si="8"/>
         <v>45.76</v>
       </c>
-      <c r="E34" s="21">
-        <f t="shared" si="5"/>
+      <c r="E36" s="28">
+        <f t="shared" si="7"/>
         <v>41.548000000000002</v>
       </c>
-      <c r="F34" s="21">
-        <f t="shared" si="5"/>
+      <c r="F36" s="21">
+        <f t="shared" si="7"/>
         <v>42.951999999999998</v>
       </c>
-      <c r="G34" s="21">
-        <f t="shared" si="5"/>
+      <c r="G36" s="21">
+        <f t="shared" si="7"/>
         <v>41.267200000000003</v>
       </c>
-      <c r="H34" s="21">
-        <f t="shared" si="5"/>
+      <c r="H36" s="21">
+        <f t="shared" si="7"/>
         <v>41.08</v>
       </c>
-      <c r="I34" s="21">
-        <f t="shared" si="5"/>
+      <c r="I36" s="21">
+        <f t="shared" si="7"/>
         <v>40.946285714285722</v>
       </c>
-      <c r="J34" s="21">
-        <f t="shared" si="5"/>
+      <c r="J36" s="21">
+        <f t="shared" si="7"/>
         <v>54.652000000000008</v>
       </c>
-      <c r="K34" s="21">
-        <f t="shared" si="5"/>
+      <c r="K36" s="21">
+        <f t="shared" si="7"/>
         <v>54.652000000000008</v>
       </c>
-      <c r="L34" s="21">
-        <f t="shared" si="5"/>
+      <c r="L36" s="21">
+        <f t="shared" si="7"/>
         <v>42.951999999999998</v>
       </c>
-      <c r="M34" s="21">
-        <f t="shared" si="5"/>
+      <c r="M36" s="21">
+        <f t="shared" si="7"/>
         <v>41.548000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A35" s="1">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A37" s="1">
         <v>12</v>
       </c>
-      <c r="C35" s="21">
-        <f t="shared" si="6"/>
+      <c r="C37" s="21">
+        <f t="shared" si="8"/>
         <v>41.160000000000004</v>
       </c>
-      <c r="D35" s="21">
-        <f t="shared" si="6"/>
+      <c r="D37" s="21">
+        <f t="shared" si="8"/>
         <v>42.24</v>
       </c>
-      <c r="E35" s="21">
-        <f t="shared" si="5"/>
+      <c r="E37" s="28">
+        <f t="shared" si="7"/>
         <v>38.352000000000004</v>
       </c>
-      <c r="F35" s="21">
-        <f t="shared" si="5"/>
+      <c r="F37" s="21">
+        <f t="shared" si="7"/>
         <v>39.647999999999996</v>
       </c>
-      <c r="G35" s="21">
-        <f t="shared" si="5"/>
+      <c r="G37" s="21">
+        <f t="shared" si="7"/>
         <v>38.092799999999997</v>
       </c>
-      <c r="H35" s="21">
-        <f t="shared" si="5"/>
+      <c r="H37" s="21">
+        <f t="shared" si="7"/>
         <v>37.92</v>
       </c>
-      <c r="I35" s="21">
-        <f t="shared" si="5"/>
+      <c r="I37" s="21">
+        <f t="shared" si="7"/>
         <v>37.796571428571433</v>
       </c>
-      <c r="J35" s="21">
-        <f t="shared" si="5"/>
+      <c r="J37" s="21">
+        <f t="shared" si="7"/>
         <v>50.448000000000008</v>
       </c>
-      <c r="K35" s="21">
-        <f t="shared" si="5"/>
+      <c r="K37" s="21">
+        <f t="shared" si="7"/>
         <v>50.448000000000008</v>
       </c>
-      <c r="L35" s="21">
-        <f t="shared" si="5"/>
+      <c r="L37" s="21">
+        <f t="shared" si="7"/>
         <v>39.647999999999996</v>
       </c>
-      <c r="M35" s="21">
-        <f t="shared" si="5"/>
+      <c r="M37" s="21">
+        <f t="shared" si="7"/>
         <v>38.352000000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A36" s="1">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A38" s="1">
         <v>11</v>
       </c>
-      <c r="C36" s="21">
-        <f t="shared" si="6"/>
+      <c r="C38" s="21">
+        <f t="shared" si="8"/>
         <v>37.730000000000004</v>
       </c>
-      <c r="D36" s="21">
-        <f t="shared" si="6"/>
+      <c r="D38" s="21">
+        <f t="shared" si="8"/>
         <v>38.72</v>
       </c>
-      <c r="E36" s="21">
-        <f t="shared" si="5"/>
+      <c r="E38" s="28">
+        <f t="shared" si="7"/>
         <v>35.155999999999999</v>
       </c>
-      <c r="F36" s="21">
-        <f t="shared" si="5"/>
+      <c r="F38" s="21">
+        <f t="shared" si="7"/>
         <v>36.344000000000001</v>
       </c>
-      <c r="G36" s="21">
-        <f t="shared" si="5"/>
+      <c r="G38" s="21">
+        <f t="shared" si="7"/>
         <v>34.918400000000005</v>
       </c>
-      <c r="H36" s="21">
-        <f t="shared" si="5"/>
+      <c r="H38" s="21">
+        <f t="shared" si="7"/>
         <v>34.76</v>
       </c>
-      <c r="I36" s="21">
-        <f t="shared" si="5"/>
+      <c r="I38" s="21">
+        <f t="shared" si="7"/>
         <v>34.646857142857144</v>
       </c>
-      <c r="J36" s="21">
-        <f t="shared" si="5"/>
+      <c r="J38" s="21">
+        <f t="shared" si="7"/>
         <v>46.244000000000007</v>
       </c>
-      <c r="K36" s="21">
-        <f t="shared" si="5"/>
+      <c r="K38" s="21">
+        <f t="shared" si="7"/>
         <v>46.244000000000007</v>
       </c>
-      <c r="L36" s="21">
-        <f t="shared" si="5"/>
+      <c r="L38" s="21">
+        <f t="shared" si="7"/>
         <v>36.344000000000001</v>
       </c>
-      <c r="M36" s="21">
-        <f t="shared" si="5"/>
+      <c r="M38" s="21">
+        <f t="shared" si="7"/>
         <v>35.155999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A37" s="1">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A39" s="1">
         <v>10</v>
       </c>
-      <c r="C37" s="21">
-        <f t="shared" si="6"/>
+      <c r="C39" s="21">
+        <f t="shared" si="8"/>
         <v>34.300000000000004</v>
       </c>
-      <c r="D37" s="21">
-        <f t="shared" si="6"/>
+      <c r="D39" s="21">
+        <f t="shared" si="8"/>
         <v>35.200000000000003</v>
       </c>
-      <c r="E37" s="21">
-        <f t="shared" si="5"/>
+      <c r="E39" s="28">
+        <f t="shared" si="7"/>
         <v>31.96</v>
       </c>
-      <c r="F37" s="21">
-        <f t="shared" si="5"/>
+      <c r="F39" s="21">
+        <f t="shared" si="7"/>
         <v>33.04</v>
       </c>
-      <c r="G37" s="21">
-        <f t="shared" si="5"/>
+      <c r="G39" s="21">
+        <f t="shared" si="7"/>
         <v>31.744</v>
       </c>
-      <c r="H37" s="21">
-        <f t="shared" si="5"/>
+      <c r="H39" s="21">
+        <f t="shared" si="7"/>
         <v>31.6</v>
       </c>
-      <c r="I37" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="I39" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK31.4971428571429</v>
       </c>
-      <c r="J37" s="21">
-        <f t="shared" si="5"/>
+      <c r="J39" s="21">
+        <f t="shared" si="7"/>
         <v>42.040000000000006</v>
       </c>
-      <c r="K37" s="21">
-        <f t="shared" si="5"/>
+      <c r="K39" s="21">
+        <f t="shared" si="7"/>
         <v>42.040000000000006</v>
       </c>
-      <c r="L37" s="21">
-        <f t="shared" si="5"/>
+      <c r="L39" s="21">
+        <f t="shared" si="7"/>
         <v>33.04</v>
       </c>
-      <c r="M37" s="21">
-        <f t="shared" si="5"/>
+      <c r="M39" s="21">
+        <f t="shared" si="7"/>
         <v>31.96</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A38" s="1">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A40" s="1">
         <v>9</v>
       </c>
-      <c r="C38" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="C40" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>OK30.87</v>
       </c>
-      <c r="D38" s="21">
-        <f t="shared" si="6"/>
+      <c r="D40" s="21">
+        <f t="shared" si="8"/>
         <v>31.68</v>
       </c>
-      <c r="E38" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="E40" s="31" t="str">
+        <f t="shared" si="7"/>
         <v>OK28.764</v>
       </c>
-      <c r="F38" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="F40" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK29.736</v>
       </c>
-      <c r="G38" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="G40" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK28.5696</v>
       </c>
-      <c r="H38" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="H40" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK28.44</v>
       </c>
-      <c r="I38" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="I40" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK28.3474285714286</v>
       </c>
-      <c r="J38" s="21">
-        <f t="shared" si="5"/>
+      <c r="J40" s="21">
+        <f t="shared" si="7"/>
         <v>37.836000000000006</v>
       </c>
-      <c r="K38" s="21">
-        <f t="shared" si="5"/>
+      <c r="K40" s="21">
+        <f t="shared" si="7"/>
         <v>37.836000000000006</v>
       </c>
-      <c r="L38" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="L40" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK29.736</v>
       </c>
-      <c r="M38" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="M40" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK28.764</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A39" s="1">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A41" s="1">
         <v>8</v>
       </c>
-      <c r="C39" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="C41" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>OK27.44</v>
       </c>
-      <c r="D39" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="D41" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>OK28.16</v>
       </c>
-      <c r="E39" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="E41" s="31" t="str">
+        <f t="shared" si="7"/>
         <v>OK25.568</v>
       </c>
-      <c r="F39" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="F41" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK26.432</v>
       </c>
-      <c r="G39" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="G41" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK25.3952</v>
       </c>
-      <c r="H39" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="H41" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK25.28</v>
       </c>
-      <c r="I39" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="I41" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK25.1977142857143</v>
       </c>
-      <c r="J39" s="21">
-        <f t="shared" si="5"/>
+      <c r="J41" s="21">
+        <f t="shared" si="7"/>
         <v>33.632000000000005</v>
       </c>
-      <c r="K39" s="21">
-        <f t="shared" si="5"/>
+      <c r="K41" s="21">
+        <f t="shared" si="7"/>
         <v>33.632000000000005</v>
       </c>
-      <c r="L39" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="L41" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK26.432</v>
       </c>
-      <c r="M39" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="M41" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK25.568</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A40" s="1">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A42" s="1">
         <v>7</v>
       </c>
-      <c r="C40" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="C42" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>OK24.01</v>
       </c>
-      <c r="D40" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="D42" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>OK24.64</v>
       </c>
-      <c r="E40" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="E42" s="31" t="str">
+        <f t="shared" si="7"/>
         <v>OK22.372</v>
       </c>
-      <c r="F40" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="F42" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK23.128</v>
       </c>
-      <c r="G40" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="G42" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK22.2208</v>
       </c>
-      <c r="H40" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="H42" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK22.12</v>
       </c>
-      <c r="I40" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="I42" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK22.048</v>
       </c>
-      <c r="J40" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="J42" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK29.428</v>
       </c>
-      <c r="K40" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="K42" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK29.428</v>
       </c>
-      <c r="L40" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="L42" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK23.128</v>
       </c>
-      <c r="M40" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="M42" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK22.372</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A41" s="1">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
         <v>6</v>
       </c>
-      <c r="C41" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="C43" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>OK20.58</v>
       </c>
-      <c r="D41" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="D43" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>OK21.12</v>
       </c>
-      <c r="E41" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="E43" s="31" t="str">
+        <f t="shared" si="7"/>
         <v>OK19.176</v>
       </c>
-      <c r="F41" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="F43" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK19.824</v>
       </c>
-      <c r="G41" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="G43" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK19.0464</v>
       </c>
-      <c r="H41" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="H43" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK18.96</v>
       </c>
-      <c r="I41" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="I43" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK18.8982857142857</v>
       </c>
-      <c r="J41" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="J43" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK25.224</v>
       </c>
-      <c r="K41" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="K43" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK25.224</v>
       </c>
-      <c r="L41" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="L43" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK19.824</v>
       </c>
-      <c r="M41" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="M43" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK19.176</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A42" s="1">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
         <v>5</v>
       </c>
-      <c r="C42" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="C44" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>OK17.15</v>
       </c>
-      <c r="D42" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="D44" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>OK17.6</v>
       </c>
-      <c r="E42" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="E44" s="31" t="str">
+        <f t="shared" si="7"/>
         <v>OK15.98</v>
       </c>
-      <c r="F42" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="F44" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK16.52</v>
       </c>
-      <c r="G42" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="G44" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK15.872</v>
       </c>
-      <c r="H42" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="H44" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK15.8</v>
       </c>
-      <c r="I42" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="I44" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK15.7485714285714</v>
       </c>
-      <c r="J42" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="J44" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK21.02</v>
       </c>
-      <c r="K42" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="K44" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK21.02</v>
       </c>
-      <c r="L42" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="L44" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK16.52</v>
       </c>
-      <c r="M42" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="M44" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK15.98</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A43" s="1">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
         <v>4</v>
       </c>
-      <c r="C43" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="C45" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>OK13.72</v>
       </c>
-      <c r="D43" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="D45" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>OK14.08</v>
       </c>
-      <c r="E43" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="E45" s="31" t="str">
+        <f t="shared" si="7"/>
         <v>OK12.784</v>
       </c>
-      <c r="F43" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="F45" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK13.216</v>
       </c>
-      <c r="G43" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="G45" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK12.6976</v>
       </c>
-      <c r="H43" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="H45" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK12.64</v>
       </c>
-      <c r="I43" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="I45" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK12.5988571428571</v>
       </c>
-      <c r="J43" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="J45" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK16.816</v>
       </c>
-      <c r="K43" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="K45" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK16.816</v>
       </c>
-      <c r="L43" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="L45" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK13.216</v>
       </c>
-      <c r="M43" s="22" t="str">
-        <f t="shared" si="5"/>
+      <c r="M45" s="22" t="str">
+        <f t="shared" si="7"/>
         <v>OK12.784</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A44" s="1">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
         <v>3</v>
       </c>
-      <c r="C44" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="C46" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>OK10.29</v>
       </c>
-      <c r="D44" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="D46" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>OK10.56</v>
       </c>
-      <c r="E44" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="E46" s="31" t="str">
+        <f t="shared" si="8"/>
         <v>OK9.588</v>
       </c>
-      <c r="F44" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="F46" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>OK9.912</v>
       </c>
-      <c r="G44" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="G46" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>OK9.5232</v>
       </c>
-      <c r="H44" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="H46" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>OK9.48</v>
       </c>
-      <c r="I44" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="I46" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>OK9.44914285714286</v>
       </c>
-      <c r="J44" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="J46" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>OK12.612</v>
       </c>
-      <c r="K44" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="K46" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>OK12.612</v>
       </c>
-      <c r="L44" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="L46" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>OK9.912</v>
       </c>
-      <c r="M44" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="M46" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>OK9.588</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A45" s="1">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
         <v>2</v>
       </c>
-      <c r="C45" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="C47" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>OK6.86</v>
       </c>
-      <c r="D45" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="D47" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>OK7.04</v>
       </c>
-      <c r="E45" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="E47" s="31" t="str">
+        <f t="shared" si="8"/>
         <v>OK6.392</v>
       </c>
-      <c r="F45" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="F47" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>OK6.608</v>
       </c>
-      <c r="G45" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="G47" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>OK6.3488</v>
       </c>
-      <c r="H45" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="H47" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>OK6.32</v>
       </c>
-      <c r="I45" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="I47" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>OK6.29942857142857</v>
       </c>
-      <c r="J45" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="J47" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>OK8.408</v>
       </c>
-      <c r="K45" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="K47" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>OK8.408</v>
       </c>
-      <c r="L45" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="L47" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>OK6.608</v>
       </c>
-      <c r="M45" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="M47" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>OK6.392</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="A46" s="1">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
         <v>1</v>
       </c>
-      <c r="C46" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="C48" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>OK3.43</v>
       </c>
-      <c r="D46" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="D48" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>OK3.52</v>
       </c>
-      <c r="E46" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="E48" s="31" t="str">
+        <f t="shared" si="8"/>
         <v>OK3.196</v>
       </c>
-      <c r="F46" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="F48" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>OK3.304</v>
       </c>
-      <c r="G46" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="G48" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>OK3.1744</v>
       </c>
-      <c r="H46" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="H48" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>OK3.16</v>
       </c>
-      <c r="I46" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="I48" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>OK3.14971428571429</v>
       </c>
-      <c r="J46" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="J48" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>OK4.204</v>
       </c>
-      <c r="K46" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="K48" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>OK4.204</v>
       </c>
-      <c r="L46" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="L48" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>OK3.304</v>
       </c>
-      <c r="M46" s="22" t="str">
-        <f t="shared" si="6"/>
+      <c r="M48" s="22" t="str">
+        <f t="shared" si="8"/>
         <v>OK3.196</v>
       </c>
     </row>
@@ -3014,27 +3739,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C7"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.8125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="60.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.6875" style="1"/>
+    <col min="7" max="7" width="11.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -3042,7 +3767,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -3059,7 +3784,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -3072,7 +3797,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>3</v>
@@ -3084,7 +3809,7 @@
         <v>341280</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -3102,7 +3827,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
@@ -3112,7 +3837,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>11</v>
@@ -3122,7 +3847,7 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -3134,7 +3859,7 @@
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -3152,12 +3877,12 @@
         <v>798</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>84</v>
       </c>
@@ -3172,7 +3897,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>88</v>
@@ -3185,7 +3910,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
@@ -3196,7 +3921,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
@@ -3207,7 +3932,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>95</v>
@@ -3220,7 +3945,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4" t="s">
@@ -3231,7 +3956,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>101</v>
       </c>
@@ -3242,7 +3967,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="5" t="s">
         <v>103</v>
@@ -3255,7 +3980,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="7" t="s">
@@ -3266,7 +3991,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>107</v>
@@ -3275,7 +4000,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="5">
         <v>0</v>
@@ -3288,7 +4013,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="7" t="s">
@@ -3299,7 +4024,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>112</v>
@@ -3308,7 +4033,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="5" t="s">
         <v>103</v>
@@ -3321,7 +4046,7 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="7" t="s">
@@ -3331,7 +4056,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>80</v>
       </c>
@@ -3344,7 +4069,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
         <v>82</v>
@@ -3355,7 +4080,7 @@
       <c r="D27" s="4"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
         <v>83</v>
@@ -3371,17 +4096,17 @@
         <v>3.0434914934412758</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>13</v>
       </c>
@@ -3396,7 +4121,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
         <v>18</v>
@@ -3409,7 +4134,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>19</v>
       </c>
@@ -3428,7 +4153,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
         <v>22</v>
@@ -3445,7 +4170,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>25</v>
       </c>
@@ -3468,7 +4193,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="D37" s="3"/>
@@ -3476,7 +4201,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>29</v>
@@ -3487,7 +4212,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -3496,7 +4221,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>15</v>
       </c>
@@ -3511,7 +4236,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>37</v>
@@ -3528,7 +4253,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>43</v>
@@ -3543,7 +4268,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
         <v>47</v>
       </c>
@@ -3558,7 +4283,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
         <v>51</v>
@@ -3571,7 +4296,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>52</v>
       </c>
@@ -3588,7 +4313,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
         <v>57</v>
@@ -3599,7 +4324,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
         <v>58</v>
       </c>
@@ -3612,7 +4337,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
         <v>60</v>
@@ -3623,7 +4348,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
         <v>61</v>
       </c>
@@ -3638,7 +4363,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -3647,7 +4372,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
         <v>64</v>
       </c>
@@ -3666,7 +4391,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3" t="s">
@@ -3681,7 +4406,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="3"/>
       <c r="B53" s="23" t="s">
         <v>70</v>
@@ -3696,7 +4421,7 @@
       </c>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3" t="s">
@@ -3711,7 +4436,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -3722,7 +4447,7 @@
       </c>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
         <v>73</v>
@@ -3741,761 +4466,7 @@
       </c>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B53:C53"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28E8ECF-9D3A-43BD-8461-E2B696C1F35B}">
-  <dimension ref="A1:I57"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
-  <cols>
-    <col min="1" max="1" width="27.8125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.6875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
-        <v>747</v>
-      </c>
-      <c r="D2" s="3">
-        <v>744</v>
-      </c>
-      <c r="E2" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3">
-        <v>682</v>
-      </c>
-      <c r="D3" s="3">
-        <v>682560</v>
-      </c>
-      <c r="E3" s="2">
-        <f>E2/E32</f>
-        <v>6.333333333333333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3">
-        <v>341</v>
-      </c>
-      <c r="D4" s="3">
-        <v>341280</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3">
-        <v>11.3</v>
-      </c>
-      <c r="D5" s="11">
-        <v>112</v>
-      </c>
-      <c r="E5" s="1">
-        <f>E3*D16</f>
-        <v>2216.6666666666665</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3">
-        <v>26.2</v>
-      </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3">
-        <v>31.5</v>
-      </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3">
-        <v>4</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4">
-        <v>3528</v>
-      </c>
-      <c r="D9" s="10">
-        <v>3528</v>
-      </c>
-      <c r="E9" s="2">
-        <f>E3*D15</f>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A11" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="7">
-        <v>32768</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="7">
-        <v>32768</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="7">
-        <v>32</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="9">
-        <v>18</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="9">
-        <v>350</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A17" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A18" s="3"/>
-      <c r="B18" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A21" s="3"/>
-      <c r="B21" s="5">
-        <v>0</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A24" s="3"/>
-      <c r="B24" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A26" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="7">
-        <v>32768</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="7">
-        <v>311594</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="8">
-        <v>15557.97</v>
-      </c>
-      <c r="D28" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E28" s="2">
-        <f>D28/C28</f>
-        <v>6.427573777298709E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="5">
-        <v>3</v>
-      </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="5">
-        <v>32768</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A34" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="5">
-        <v>200</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="5">
-        <v>50</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A36" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A40" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A43" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="6">
-        <v>32</v>
-      </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="6">
-        <v>16</v>
-      </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A45" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A47" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A49" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A51" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A53" s="3"/>
-      <c r="B53" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="5">
-        <v>8</v>
-      </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G55" s="3"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G56" s="3"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3" t="s">
@@ -4520,26 +4491,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0B2AE8-1B44-48D7-9E39-DC01F48B493C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28E8ECF-9D3A-43BD-8461-E2B696C1F35B}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.8125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="60.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.6875" style="1"/>
+    <col min="7" max="7" width="11.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -4547,7 +4518,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -4564,7 +4535,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -4577,10 +4548,10 @@
       </c>
       <c r="E3" s="2">
         <f>E2/E32</f>
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.6">
+        <v>6.333333333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>3</v>
@@ -4592,7 +4563,7 @@
         <v>341280</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -4607,10 +4578,10 @@
       </c>
       <c r="E5" s="1">
         <f>E3*D16</f>
-        <v>2318</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.6">
+        <v>2216.6666666666665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
@@ -4620,7 +4591,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>11</v>
@@ -4629,8 +4600,12 @@
         <v>31.5</v>
       </c>
       <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F7" s="1">
+        <f>C7+C6</f>
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -4642,7 +4617,7 @@
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -4657,15 +4632,15 @@
       </c>
       <c r="E9" s="2">
         <f>E3*D15</f>
-        <v>342</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.6">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>84</v>
       </c>
@@ -4676,11 +4651,11 @@
         <v>15</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>88</v>
@@ -4693,7 +4668,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
@@ -4704,7 +4679,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
@@ -4715,7 +4690,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>95</v>
@@ -4724,22 +4699,22 @@
         <v>97</v>
       </c>
       <c r="D15" s="9">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4" t="s">
         <v>99</v>
       </c>
       <c r="D16" s="9">
-        <v>488</v>
+        <v>350</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>101</v>
       </c>
@@ -4750,7 +4725,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="5" t="s">
         <v>103</v>
@@ -4763,7 +4738,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="7" t="s">
@@ -4774,7 +4749,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>107</v>
@@ -4783,7 +4758,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="5">
         <v>0</v>
@@ -4796,7 +4771,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="7" t="s">
@@ -4807,7 +4782,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>112</v>
@@ -4816,7 +4791,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="5" t="s">
         <v>103</v>
@@ -4829,7 +4804,7 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="7" t="s">
@@ -4839,7 +4814,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>80</v>
       </c>
@@ -4852,44 +4827,44 @@
       <c r="D26" s="4"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C27" s="7">
-        <v>131263</v>
+        <v>311594</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C28" s="8">
-        <v>525.05200000000002</v>
+        <v>15557.97</v>
       </c>
       <c r="D28" s="4">
         <v>1000</v>
       </c>
       <c r="E28" s="2">
         <f>D28/C28</f>
-        <v>1.9045732613150697</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.6">
+        <v>6.427573777298709E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>13</v>
       </c>
@@ -4899,12 +4874,12 @@
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
         <v>18</v>
@@ -4917,7 +4892,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>19</v>
       </c>
@@ -4931,12 +4906,12 @@
         <v>30</v>
       </c>
       <c r="E34" s="5">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
         <v>22</v>
@@ -4953,7 +4928,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>25</v>
       </c>
@@ -4976,7 +4951,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="D37" s="3"/>
@@ -4984,7 +4959,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>29</v>
@@ -4995,7 +4970,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -5004,7 +4979,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>15</v>
       </c>
@@ -5019,7 +4994,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>37</v>
@@ -5036,7 +5011,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>43</v>
@@ -5051,7 +5026,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
         <v>47</v>
       </c>
@@ -5066,7 +5041,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
         <v>51</v>
@@ -5079,7 +5054,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>52</v>
       </c>
@@ -5096,7 +5071,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
         <v>57</v>
@@ -5107,7 +5082,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
         <v>58</v>
       </c>
@@ -5120,7 +5095,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
         <v>60</v>
@@ -5131,7 +5106,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
         <v>61</v>
       </c>
@@ -5146,7 +5121,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -5155,7 +5130,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
         <v>64</v>
       </c>
@@ -5174,7 +5149,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3" t="s">
@@ -5189,14 +5164,14 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="3"/>
       <c r="B53" s="23" t="s">
         <v>70</v>
       </c>
       <c r="C53" s="24"/>
       <c r="D53" s="5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3" t="s">
@@ -5204,7 +5179,7 @@
       </c>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3" t="s">
@@ -5219,7 +5194,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -5230,7 +5205,7 @@
       </c>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
         <v>73</v>
@@ -5249,7 +5224,761 @@
       </c>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B53:C53"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0B2AE8-1B44-48D7-9E39-DC01F48B493C}">
+  <dimension ref="A1:I57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="27.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>747</v>
+      </c>
+      <c r="D2" s="3">
+        <v>744</v>
+      </c>
+      <c r="E2" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>682</v>
+      </c>
+      <c r="D3" s="3">
+        <v>682560</v>
+      </c>
+      <c r="E3" s="2">
+        <f>E2/E32</f>
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>341</v>
+      </c>
+      <c r="D4" s="3">
+        <v>341280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>11.3</v>
+      </c>
+      <c r="D5" s="11">
+        <v>112</v>
+      </c>
+      <c r="E5" s="1">
+        <f>E3*D16</f>
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>26.2</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3">
+        <v>31.5</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4">
+        <v>3528</v>
+      </c>
+      <c r="D9" s="10">
+        <v>3528</v>
+      </c>
+      <c r="E9" s="2">
+        <f>E3*D15</f>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="7">
+        <v>32768</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="7">
+        <v>32768</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="7">
+        <v>32</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="9">
+        <v>72</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="9">
+        <v>488</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="3"/>
+      <c r="B18" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="3"/>
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="3"/>
+      <c r="B24" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="7">
+        <v>32768</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="7">
+        <v>131263</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="8">
+        <v>525.05200000000002</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E28" s="2">
+        <f>D28/C28</f>
+        <v>1.9045732613150697</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="5">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="5">
+        <v>32768</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="5">
+        <v>250</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="5">
+        <v>50</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="6">
+        <v>32</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="6">
+        <v>16</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A47" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A49" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A51" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A53" s="3"/>
+      <c r="B53" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="24"/>
+      <c r="D53" s="5">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3" t="s">
